--- a/Hypnos V3.1/Bill of Materials - Hypnos V3.1.xlsx
+++ b/Hypnos V3.1/Bill of Materials - Hypnos V3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Nguyen\Documents\GitHub\OPEnS-Power\Hypnos 12V\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tek\Desktop\Store\Hypnos V3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91762ED-3A05-466E-A5BA-EC7749AC972E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A48CFEA-4FE3-4F6A-BB4A-911452A06413}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digikey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Mouser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="79">
   <si>
     <t>Digikey</t>
   </si>
@@ -176,16 +173,10 @@
     <t>603-CC206KKX7R0BB104</t>
   </si>
   <si>
-    <t>Mouser is more expensive</t>
-  </si>
-  <si>
     <t>Min 100 order</t>
   </si>
   <si>
     <t>DMP3056LDMDICT-ND</t>
-  </si>
-  <si>
-    <t>SOT26</t>
   </si>
   <si>
     <t>N channel Mosfet</t>
@@ -285,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,52 +293,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -368,6 +314,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,52 +378,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,500 +691,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="31.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="9.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <v>0.33</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="9">
         <f>E2*C2</f>
         <v>0.66</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="9">
         <v>0.41</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <f>C3*E3</f>
         <v>0.41</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="9">
         <v>0.17</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <f>E4*C4</f>
         <v>0.34</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K5" s="14" t="s">
+      <c r="G4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="9">
         <v>0.1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <f>E6*C6</f>
         <v>0.2</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <v>0.1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="12">
         <f t="shared" ref="F7:F9" si="0">E7*C7</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="G7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10">
         <v>1206</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>1660</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="9">
         <v>1.95</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <v>8.77</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>8.77</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="G9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="9">
         <v>0.34</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="12">
         <f>E11*C11</f>
         <v>0.68</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="G11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="9">
         <v>0.91</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="12">
         <f>E12*C12</f>
         <v>0.91</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <v>0.1</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <v>0.1</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="13">
         <v>1206</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>0.19</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="9">
         <f t="shared" ref="F14:F15" si="1">E14*C14</f>
         <v>0.38</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="13">
         <v>1206</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="9">
         <v>0.51</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="9">
         <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="19" t="s">
+      <c r="G15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9">
         <v>0.1</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="9">
         <f>E16*C16</f>
         <v>0.1</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="19" t="s">
+      <c r="G16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="9">
         <v>0.1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="9">
         <f>E17*C17</f>
         <v>0.1</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="19" t="s">
+      <c r="G17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9">
         <v>0.1</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="9">
         <f>E18*C18</f>
         <v>0.2</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="19" t="s">
+      <c r="G18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="9">
         <v>0.44</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <f>E19*C19</f>
         <v>0.44</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="10"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
+      <c r="G19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F20" s="9">
         <f>SUM(F2:F19)</f>
         <v>16.46</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="4"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="2"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8B96312F-97CC-4E32-B812-4674C440AE33}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{B8F40555-CF0D-4F09-AFCA-5770736C8CF9}"/>
@@ -1273,570 +1380,500 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B778148E-242D-409E-9127-666EF26A5862}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="20.5703125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="9">
         <v>0.15</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="9">
         <f>E2*C2</f>
         <v>0.15</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="18" t="s">
+      <c r="G2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>0.31</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F12" si="0">C3*E3</f>
         <v>0.62</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="18" t="s">
+      <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="9">
         <v>0.41</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <f>C4*E4</f>
         <v>0.41</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="L4" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>0.1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <f t="shared" ref="F6:F9" si="1">E6*C6</f>
         <v>0.2</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="19" t="s">
+      <c r="G6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>0.1</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="18">
+      <c r="G7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="13">
         <v>1206</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>1660</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="18"/>
-      <c r="L8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>8.77</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
         <v>8.77</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="G9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15">
-        <v>2</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="9">
         <v>0.33</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="18" t="s">
+      <c r="G11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="L11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="9">
         <v>0.91</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="14">
         <v>0.09</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="9">
         <f t="shared" ref="F13" si="2">E13*C13</f>
         <v>0.18</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="18">
+      <c r="G13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="13">
         <v>1206</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>0.18</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="14">
         <f>C14*E14</f>
         <v>0.36</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="18">
+      <c r="G14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="13">
         <v>1206</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="9">
         <v>0.43</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="14">
         <f>C15*E15</f>
         <v>0.86</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="19" t="s">
+      <c r="G15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="9">
         <v>0.1</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="9">
         <f>E16*C16</f>
         <v>0.1</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="19" t="s">
+      <c r="G16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="9">
         <v>0.1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="9">
         <f>E17*C17</f>
         <v>0.1</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="19" t="s">
+      <c r="G17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="9">
         <v>0.1</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="9">
         <f>E18*C18</f>
         <v>0.2</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="19" t="s">
+      <c r="G18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="9">
         <v>0.44</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <f>E19*C19</f>
         <v>0.44</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
+      <c r="G19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="9">
         <f>SUM(F2:F19)</f>
         <v>16.479999999999997</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1865,507 +1902,493 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00EFBA5-BB63-4E95-AAB6-77207EAA5FF2}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="24.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="19.140625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="9">
         <v>0.16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <f>E2*C2</f>
         <v>0.32</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="G2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>0.33</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <f t="shared" ref="F3:F9" si="0">E3*C3</f>
         <v>0.66</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="G3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="9">
         <v>0.39</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <f>C4*E4</f>
         <v>0.39</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>63</v>
+      <c r="G4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9">
         <v>0.1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <f t="shared" ref="F6:F8" si="1">E6*C6</f>
         <v>0.2</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="19" t="s">
+      <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="9">
         <v>0.1</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="24">
+      <c r="G7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="13">
         <v>1206</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>1660</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>1.95</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>1.95</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>9.0399999999999991</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>9.0399999999999991</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="D10" s="16"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="G9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="D10" s="2"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>0.34</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <f>E11*C11</f>
         <v>0.68</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="G11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>0.91</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <f t="shared" ref="F12:F15" si="2">E12*C12</f>
         <v>0.91</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="G12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="14">
         <v>0.15</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="24">
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="13">
         <v>1206</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>0.26</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="24">
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="13">
         <v>1206</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>0.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="25" t="s">
+      <c r="G15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="9">
         <v>0.1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <f>E16*C16</f>
         <v>0.1</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="25" t="s">
+      <c r="G16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="9">
         <v>0.23</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <f>E17*C17</f>
         <v>0.23</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="25" t="s">
+      <c r="G17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="9">
         <v>0.1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <f>E18*C18</f>
         <v>0.2</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="25" t="s">
+      <c r="G18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="9">
         <v>0.44</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <f>E19*C19</f>
         <v>0.44</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+      <c r="G19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <f>SUM(F2:F19)</f>
         <v>17.14</v>
       </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{A7DDD5B0-8501-4C66-A3C8-0735384266BB}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{E519168B-AADE-491C-B237-9B9A93BF91EF}"/>
